--- a/datos de economia/datos_crudos/ipsa.xlsx
+++ b/datos de economia/datos_crudos/ipsa.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="Microsoft Office Excel"/>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MiBDE" sheetId="1" r:id="R12c7ea2a67344d0f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="Rf7f40e710ea945a0"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -184,55 +184,677 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:cols>
-    <x:col min="705" max="705" hidden="1"/>
+    <x:col min="1" max="1" width="15" customWidth="1"/>
+    <x:col min="2" max="2" width="20" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1">
-      <x:c r="A1" t="str">
-        <x:v>Año inicial</x:v>
-      </x:c>
-      <x:c r="B1" s="31"/>
-      <x:c r="C1" t="str">
-        <x:v>Año final</x:v>
-      </x:c>
-      <x:c r="D1" s="31"/>
-      <x:c r="AAC1" t="str">
-        <x:v>MONTHLY</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2">
-      <x:c r="AAC2" t="str">
-        <x:v>es-CL</x:v>
+      <x:c s="26" t="str">
+        <x:v>Indicadores bursátiles</x:v>
+      </x:c>
+      <x:c s="26" t="str">
+        <x:v/>
       </x:c>
     </x:row>
     <x:row r="3">
-      <x:c r="A3" t="str">
-        <x:v>Para actualizar, presione OBTENER DATOS en menú BCCh</x:v>
-      </x:c>
-      <x:c r="AAC3" t="str">
-        <x:v>01-01-2018</x:v>
+      <x:c s="28" t="str">
+        <x:v>Periodo</x:v>
+      </x:c>
+      <x:c s="28" t="str">
+        <x:v>1.IPSA  (índice enero 2003=1000)                      </x:v>
       </x:c>
     </x:row>
     <x:row r="4">
-      <x:c r="AAC4" t="str">
-        <x:v>Indicadores bursátiles</x:v>
+      <x:c s="5" t="d">
+        <x:v>2018-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5855.38</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
-      <x:c r="AAC5" t="str">
-        <x:v>xJ+P7GyIWSFyzPzyr5RhpubVrwjbUg0tJ25bXyY0zlMlQQpw/Cxv0Rf9p3O8byzQQdkGpQJvsd8lNdKOqVbP3YI9O4taGUtqvfiGfJJqnuoRFvpwAT5E0k6sAQ+KzPgk/grbKEjr8HXEtK68Ca6N4/ggVyrclfAuIOEfdZqm/SVUlAsoyeqClU0U6CqymcG6NBGzNjqgvvN9p8sDR3YwDg==</x:v>
+      <x:c s="5" t="d">
+        <x:v>2018-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5602.83</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
-      <x:c r="AAC6" t="str">
-        <x:v>071020242021222b46fad3-7b8b-4e0e-ae66-184345ee9935</x:v>
+      <x:c s="5" t="d">
+        <x:v>2018-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5542.22</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
-      <x:c r="AAC7" t="str">
-        <x:v>gMNPCFKmuKUfMPNvb5piywI1O6enfIxCD80RCism11StRooZTrjSnEYQ2o/5YhgRVc04KiJ+1+j/cveisNRP2xvn0XIwrsiW8gyo9Safzf5VTDpyCaYHUO3ndkMQSjXq9Ty6ruLFoncmszIFODEXfKTzDjFmReAV3TuJdLN2da7qm49Y5ox57amvGiXj0cxUD/pZw3MTxPqV0HZ3ht66Vw==</x:v>
+      <x:c s="5" t="d">
+        <x:v>2018-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5710.9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8">
+      <x:c s="5" t="d">
+        <x:v>2018-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5455.09</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9">
+      <x:c s="5" t="d">
+        <x:v>2018-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5301.25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10">
+      <x:c s="5" t="d">
+        <x:v>2018-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5434.44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11">
+      <x:c s="5" t="d">
+        <x:v>2018-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5270.44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12">
+      <x:c s="5" t="d">
+        <x:v>2018-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5283.53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13">
+      <x:c s="5" t="d">
+        <x:v>2018-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5104.33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14">
+      <x:c s="5" t="d">
+        <x:v>2018-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5111.88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15">
+      <x:c s="5" t="d">
+        <x:v>2018-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5105.43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16">
+      <x:c s="5" t="d">
+        <x:v>2019-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5405.61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
+      <x:c s="5" t="d">
+        <x:v>2019-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5287.54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18">
+      <x:c s="5" t="d">
+        <x:v>2019-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5259.41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19">
+      <x:c s="5" t="d">
+        <x:v>2019-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5187.1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
+      <x:c s="5" t="d">
+        <x:v>2019-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4977.09</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c s="5" t="d">
+        <x:v>2019-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5070.72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22">
+      <x:c s="5" t="d">
+        <x:v>2019-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4972.36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23">
+      <x:c s="5" t="d">
+        <x:v>2019-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4804.37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24">
+      <x:c s="5" t="d">
+        <x:v>2019-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5059.04</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25">
+      <x:c s="5" t="d">
+        <x:v>2019-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4744.13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26">
+      <x:c s="5" t="d">
+        <x:v>2019-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4538.8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27">
+      <x:c s="5" t="d">
+        <x:v>2019-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4669.85</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28">
+      <x:c s="5" t="d">
+        <x:v>2020-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4572.06</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29">
+      <x:c s="5" t="d">
+        <x:v>2020-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4122.63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30">
+      <x:c s="5" t="d">
+        <x:v>2020-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3487.49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31">
+      <x:c s="5" t="d">
+        <x:v>2020-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3977.56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32">
+      <x:c s="5" t="d">
+        <x:v>2020-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3647.6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33">
+      <x:c s="5" t="d">
+        <x:v>2020-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3959.02</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34">
+      <x:c s="5" t="d">
+        <x:v>2020-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4017.08</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35">
+      <x:c s="5" t="d">
+        <x:v>2020-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3767.15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36">
+      <x:c s="5" t="d">
+        <x:v>2020-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3637.3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37">
+      <x:c s="5" t="d">
+        <x:v>2020-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3539.92</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38">
+      <x:c s="5" t="d">
+        <x:v>2020-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4032.87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39">
+      <x:c s="5" t="d">
+        <x:v>2020-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4177.22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40">
+      <x:c s="5" t="d">
+        <x:v>2021-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4288.65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41">
+      <x:c s="5" t="d">
+        <x:v>2021-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4573.37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42">
+      <x:c s="5" t="d">
+        <x:v>2021-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4898.09</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43">
+      <x:c s="5" t="d">
+        <x:v>2021-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4472.84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44">
+      <x:c s="5" t="d">
+        <x:v>2021-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4356.43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45">
+      <x:c s="5" t="d">
+        <x:v>2021-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4331.33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46">
+      <x:c s="5" t="d">
+        <x:v>2021-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4252.04</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47">
+      <x:c s="5" t="d">
+        <x:v>2021-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4491.57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48">
+      <x:c s="5" t="d">
+        <x:v>2021-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4362.59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49">
+      <x:c s="5" t="d">
+        <x:v>2021-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4092.2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50">
+      <x:c s="5" t="d">
+        <x:v>2021-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4432.71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51">
+      <x:c s="5" t="d">
+        <x:v>2021-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4308.38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52">
+      <x:c s="5" t="d">
+        <x:v>2022-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4548.45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53">
+      <x:c s="5" t="d">
+        <x:v>2022-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4534.47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54">
+      <x:c s="5" t="d">
+        <x:v>2022-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4936.97</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55">
+      <x:c s="5" t="d">
+        <x:v>2022-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4778.43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56">
+      <x:c s="5" t="d">
+        <x:v>2022-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5350.48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57">
+      <x:c s="5" t="d">
+        <x:v>2022-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4950.39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58">
+      <x:c s="5" t="d">
+        <x:v>2022-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5259.05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59">
+      <x:c s="5" t="d">
+        <x:v>2022-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5441.26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60">
+      <x:c s="5" t="d">
+        <x:v>2022-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5114.19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61">
+      <x:c s="5" t="d">
+        <x:v>2022-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5193.81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62">
+      <x:c s="5" t="d">
+        <x:v>2022-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5282.61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63">
+      <x:c s="5" t="d">
+        <x:v>2022-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5261.91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64">
+      <x:c s="5" t="d">
+        <x:v>2023-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5322.39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65">
+      <x:c s="5" t="d">
+        <x:v>2023-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5394.9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66">
+      <x:c s="5" t="d">
+        <x:v>2023-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5324.62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67">
+      <x:c s="5" t="d">
+        <x:v>2023-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5416.09</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68">
+      <x:c s="5" t="d">
+        <x:v>2023-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5471.54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69">
+      <x:c s="5" t="d">
+        <x:v>2023-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5786.8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70">
+      <x:c s="5" t="d">
+        <x:v>2023-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6394.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71">
+      <x:c s="5" t="d">
+        <x:v>2023-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6009.28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72">
+      <x:c s="5" t="d">
+        <x:v>2023-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5833.36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73">
+      <x:c s="5" t="d">
+        <x:v>2023-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5407.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74">
+      <x:c s="5" t="d">
+        <x:v>2023-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5818.51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75">
+      <x:c s="5" t="d">
+        <x:v>2023-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6197.77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76">
+      <x:c s="5" t="d">
+        <x:v>2024-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5987.14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77">
+      <x:c s="5" t="d">
+        <x:v>2024-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6449.88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78">
+      <x:c s="5" t="d">
+        <x:v>2024-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6643.76</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79">
+      <x:c s="5" t="d">
+        <x:v>2024-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6511.93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80">
+      <x:c s="5" t="d">
+        <x:v>2024-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6632.8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81">
+      <x:c s="5" t="d">
+        <x:v>2024-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6413.88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82">
+      <x:c s="5" t="d">
+        <x:v>2024-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6440.56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83">
+      <x:c s="5" t="d">
+        <x:v>2024-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6459.96</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84">
+      <x:c s="5" t="d">
+        <x:v>2024-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6490.57</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:mergeCells>
+    <x:mergeCell ref="A1:B1"/>
+  </x:mergeCells>
 </x:worksheet>
 </file>